--- a/PIN Config.xlsx
+++ b/PIN Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ubhan\Documents\GitHub\ICT-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063B2990-6467-4FB9-9B52-64AC60481C92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A700CDF8-91C4-4216-98A0-464A12A5BC25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{624545E5-C439-44B5-9B2E-433D4F052205}"/>
+    <workbookView xWindow="31410" yWindow="615" windowWidth="17280" windowHeight="8970" xr2:uid="{624545E5-C439-44B5-9B2E-433D4F052205}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>PH SENSOR 03</t>
   </si>
@@ -172,6 +172,54 @@
   </si>
   <si>
     <t>PC3</t>
+  </si>
+  <si>
+    <t>water Level Sensors</t>
+  </si>
+  <si>
+    <t>sensor 01</t>
+  </si>
+  <si>
+    <t>sensor 02</t>
+  </si>
+  <si>
+    <t>sensor 03</t>
+  </si>
+  <si>
+    <t>signal</t>
+  </si>
+  <si>
+    <t>PA3</t>
+  </si>
+  <si>
+    <t>PA4</t>
+  </si>
+  <si>
+    <t>PA5</t>
+  </si>
+  <si>
+    <t>Water control value</t>
+  </si>
+  <si>
+    <t>Sensor 01</t>
+  </si>
+  <si>
+    <t>Sensor 02</t>
+  </si>
+  <si>
+    <t>Sensor 03</t>
+  </si>
+  <si>
+    <t>12v input</t>
+  </si>
+  <si>
+    <t>PC4</t>
+  </si>
+  <si>
+    <t>PC5</t>
+  </si>
+  <si>
+    <t>PC6</t>
   </si>
 </sst>
 </file>
@@ -552,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A5549E-A67A-4486-88FF-1A2B5C3A9CCC}">
-  <dimension ref="B2:F35"/>
+  <dimension ref="B2:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -811,17 +859,93 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>47</v>
       </c>
       <c r="D35" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
